--- a/biology/Zoologie/Guifette_moustac/Guifette_moustac.xlsx
+++ b/biology/Zoologie/Guifette_moustac/Guifette_moustac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlidonias hybrida
-La Guifette moustac (Chlidonias hybrida) est une espèce d'oiseaux de la famille des Laridae[1]. C'est la plus grande des guifettes.
+La Guifette moustac (Chlidonias hybrida) est une espèce d'oiseaux de la famille des Laridae. C'est la plus grande des guifettes.
 </t>
         </is>
       </c>
@@ -512,16 +524,13 @@
           <t>Description et biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce atteint une taille de 29 cm et une envergure de 64 à 70 cm pour un poids de 80 à 95 g.
-En été le bec est rouge, la tête est noire sur le dessus, blanche sur les côtés et le reste est gris plus ou moins sombre. En hiver les couleurs tirent vers le blanc et le bec devient noir[2].
+En été le bec est rouge, la tête est noire sur le dessus, blanche sur les côtés et le reste est gris plus ou moins sombre. En hiver les couleurs tirent vers le blanc et le bec devient noir.
 Elle peut être confondue avec la Sterne pierregarin en automne et en hiver. En été, son plumage est unique et l'on remarque notamment la blancheur de la joue mise en valeur par la calotte noire et le dessous gris.
-Nourriture
-Cet oiseau capture de petits poissons, des insectes et des crustacés à la surface de l'eau.
-Reproduction
-Les principaux sites de reproduction français par ordre décroissant sont : la Dombes, la Brenne, le lac de Grand-Lieu, la Sologne, le Forez et la Brière.
-L'espèce niche sur un amas de végétaux à demi flottant. Trois œufs sont déposés en une seule ponte de mai à juin.
 </t>
         </is>
       </c>
@@ -547,12 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description et biologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce migratrice se rencontre selon les saisons dans de très nombreux pays[3] : de l'ensemble de l'Afrique (hors déserts) jusqu'à la moitié sud de l'Europe (où sa répartition est plus parcellaire à l'ouest), et de l'Australie jusqu'en Chine à l'est, avec une large bande entre les deux allant de la Thaïlande à l'Ukraine.
+          <t>Nourriture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau capture de petits poissons, des insectes et des crustacés à la surface de l'eau.
 </t>
         </is>
       </c>
@@ -578,13 +593,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Menaces et protections</t>
+          <t>Description et biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-En France cette espèce est considérée comme nicheur vulnérable (VU), menacée principalement par la destruction de son habitat (zones humides)[4],[5].
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux sites de reproduction français par ordre décroissant sont : la Dombes, la Brenne, le lac de Grand-Lieu, la Sologne, le Forez et la Brière.
+L'espèce niche sur un amas de végétaux à demi flottant. Trois œufs sont déposés en une seule ponte de mai à juin.
 </t>
         </is>
       </c>
@@ -610,12 +631,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce migratrice se rencontre selon les saisons dans de très nombreux pays : de l'ensemble de l'Afrique (hors déserts) jusqu'à la moitié sud de l'Europe (où sa répartition est plus parcellaire à l'ouest), et de l'Australie jusqu'en Chine à l'est, avec une large bande entre les deux allant de la Thaïlande à l'Ukraine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Guifette_moustac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guifette_moustac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Menaces et protections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France cette espèce est considérée comme nicheur vulnérable (VU), menacée principalement par la destruction de son habitat (zones humides),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Guifette_moustac</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guifette_moustac</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Alan P. Peterson                                    (26 septembre 2017)[6], Catalogue of Life                                   (26 septembre 2017)[7] et la classification de référence du Congrès ornithologique international  (version 7.3, 2017)[1] cette espèce est constituée des trois sous-espèces suivantes :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Alan P. Peterson                                    (26 septembre 2017), Catalogue of Life                                   (26 septembre 2017) et la classification de référence du Congrès ornithologique international  (version 7.3, 2017) cette espèce est constituée des trois sous-espèces suivantes :
 Chlidonias hybrida hybrida (Mathews, 1912) : niche du nord-ouest de l'Afrique et au centre et au sud de l'Europe au sud-est de la Sibérie, est de la Chine, au Pakistan et au nord de l'Inde ; hiverne de l'Afrique et en Asie du sud et du sud-est à la péninsule malaise, Sulawesi et les Philippines
 Chlidonias hybrida javanicus (Pallas, 1811) : niche en Australie ; hiverne du nord de l'Australie à la Nouvelle Guinée, les îles de la Sonde et les Philippines
 Chlidonias hybrida delalandii (Horsfield, 1821) : réside au sud et à l'est de l'Afrique et à Madagascar
